--- a/Shortcuts List/Shortcuts.xlsx
+++ b/Shortcuts List/Shortcuts.xlsx
@@ -2,15 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="12225" yWindow="45" windowWidth="16590" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$47</definedName>
@@ -20,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="175">
   <si>
     <t>Key</t>
   </si>
@@ -533,6 +530,18 @@
   </si>
   <si>
     <t>vitoshacademy.com</t>
+  </si>
+  <si>
+    <t>Step by step</t>
+  </si>
+  <si>
+    <t>Repeat Last Comment</t>
+  </si>
+  <si>
+    <t>Alt + F10</t>
+  </si>
+  <si>
+    <t>Show objects</t>
   </si>
 </sst>
 </file>
@@ -598,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -621,167 +630,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,28 +659,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -838,109 +680,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1245,14 +1003,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Tabelle1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="A1:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1708,27 +1466,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1740,7 +1498,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1758,7 +1516,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1772,7 +1530,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1790,7 +1548,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1804,7 +1562,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1818,7 +1576,7 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1834,7 +1592,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1852,7 +1610,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1870,7 +1628,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1886,7 +1644,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="2"/>
@@ -1898,7 +1656,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1912,7 +1670,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="2"/>
@@ -1924,7 +1682,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="2"/>
@@ -1936,7 +1694,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="2"/>
@@ -1948,7 +1706,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="2"/>
@@ -1962,7 +1720,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="2"/>
@@ -1976,7 +1734,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="2"/>
@@ -1988,7 +1746,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="2"/>
@@ -2002,7 +1760,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="2"/>
@@ -2016,7 +1774,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="2"/>
@@ -2032,7 +1790,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="2"/>
@@ -2044,7 +1802,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="2"/>
@@ -2056,7 +1814,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="2"/>
@@ -2068,7 +1826,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2"/>
@@ -2080,7 +1838,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="2"/>
@@ -2092,7 +1850,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="2"/>
@@ -2104,7 +1862,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="2"/>
@@ -2118,7 +1876,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="2"/>
@@ -2130,7 +1888,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="2"/>
@@ -2144,7 +1902,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="2"/>
@@ -2158,7 +1916,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="2"/>
@@ -2170,7 +1928,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="2"/>
@@ -2182,7 +1940,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2198,7 +1956,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2212,7 +1970,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2228,7 +1986,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2244,7 +2002,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2260,7 +2018,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2276,7 +2034,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="12" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2292,7 +2050,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2308,7 +2066,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B43" s="2"/>
@@ -2322,7 +2080,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2340,7 +2098,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2352,7 +2110,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2368,291 +2126,275 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="10" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="57"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="24"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="13" t="s">
+      <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="40"/>
+      <c r="C55" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="41"/>
+      <c r="C56" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="13" t="s">
+      <c r="B57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="41"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="17"/>
+      <c r="B58" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C58" s="17"/>
-      <c r="D58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="41"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="13" t="s">
+      <c r="B59" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="41"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="14" t="s">
+      <c r="B60" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="42"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="33"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="43"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="45"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="45"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="48"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C49:F53"/>
     <mergeCell ref="E55:F60"/>
-    <mergeCell ref="C62:F66"/>
+    <mergeCell ref="C62:F67"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="78" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>